--- a/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/Datos  de Embargos.xlsx
+++ b/6- Ingenieria de producto/6.1 - Análisis/04- Archivos de Trabajo/01-Embargos/Datos  de Embargos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldevt\OneDrive\Documentos\1- CIDs\MID\documentacion\6- Ingenieria de producto\6.1 - Análisis\04- Archivos de Trabajo\01-Embargos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1F41F-3151-4638-88D6-350988D21030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B19F8A0-C082-4A26-B8D3-9AAE13A79F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Embargos" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Edición de datos de Embargos</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Nº Expediente</t>
   </si>
   <si>
-    <t>Fecha Expediente</t>
-  </si>
-  <si>
     <t>Autos Caratulados</t>
   </si>
   <si>
@@ -59,39 +56,21 @@
     <t>Domicilio Juzgado</t>
   </si>
   <si>
-    <t>Nombre y Apellido Pasivo demandado</t>
-  </si>
-  <si>
-    <t>DNI Pasivo Demandado</t>
-  </si>
-  <si>
     <t>Nombre y Apellido Beneficiario/a</t>
   </si>
   <si>
     <t>DNI Beneficiario/a</t>
   </si>
   <si>
-    <t>% Embargo</t>
-  </si>
-  <si>
-    <t>Monto a Embargar</t>
-  </si>
-  <si>
     <t>Banco</t>
   </si>
   <si>
-    <t>Sucursal Bancaria</t>
-  </si>
-  <si>
     <t>Nº Cta - Caja de Ahorro</t>
   </si>
   <si>
     <t>Nº CBU</t>
   </si>
   <si>
-    <t>Comentarios/ Observaciones</t>
-  </si>
-  <si>
     <t>Considera agregar otros datos</t>
   </si>
   <si>
@@ -107,12 +86,6 @@
     <t>Nombre y Apellido Pasivo Demandado</t>
   </si>
   <si>
-    <t>CUIL Pasivo Demandado</t>
-  </si>
-  <si>
-    <t>CUIL Beneficiario/a</t>
-  </si>
-  <si>
     <t>Nº Cuenta</t>
   </si>
   <si>
@@ -123,13 +96,94 @@
   </si>
   <si>
     <t>Considera agregar otro dato como filtro?</t>
+  </si>
+  <si>
+    <t>Datos del oficio</t>
+  </si>
+  <si>
+    <t>Nº Oficio</t>
+  </si>
+  <si>
+    <t>Fecha Oficio</t>
+  </si>
+  <si>
+    <t>Fecha de Recepción</t>
+  </si>
+  <si>
+    <t>Fecha de vigencia del Oficio</t>
+  </si>
+  <si>
+    <t>Fecha inicio</t>
+  </si>
+  <si>
+    <t>Fecha fin</t>
+  </si>
+  <si>
+    <t>Fecha Reprogramación</t>
+  </si>
+  <si>
+    <t>Datos Integrantes del oficio</t>
+  </si>
+  <si>
+    <t>Integrantes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pasivo demandado</t>
+  </si>
+  <si>
+    <t>Demandado</t>
+  </si>
+  <si>
+    <t>CUIL/CUIT/CUIJ</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Datos Bancarios</t>
+  </si>
+  <si>
+    <t>Beneficiario</t>
+  </si>
+  <si>
+    <t>Sucursal bancaria</t>
+  </si>
+  <si>
+    <t>Nº Convenio</t>
+  </si>
+  <si>
+    <t>Origen Oficio judicial</t>
+  </si>
+  <si>
+    <t>Tipo oficio judicial</t>
+  </si>
+  <si>
+    <t>Fecha inicio vigencia</t>
+  </si>
+  <si>
+    <t>Fecha fin vigencia</t>
+  </si>
+  <si>
+    <t>Reprogramación vigencia</t>
+  </si>
+  <si>
+    <t>DNI Demandado</t>
+  </si>
+  <si>
+    <t>DNI Beneficiario</t>
+  </si>
+  <si>
+    <t>CUIL Beneficiario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,8 +224,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -482,11 +556,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -505,10 +610,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,6 +621,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,6 +662,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -570,17 +683,43 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:K1000"/>
+  <dimension ref="B1:K1014"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -820,63 +959,61 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="28" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="27" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="2:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
@@ -885,10 +1022,10 @@
     </row>
     <row r="7" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
@@ -897,10 +1034,10 @@
     </row>
     <row r="8" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -909,10 +1046,10 @@
     </row>
     <row r="9" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -921,10 +1058,10 @@
     </row>
     <row r="10" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -933,10 +1070,10 @@
     </row>
     <row r="11" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -945,10 +1082,10 @@
     </row>
     <row r="12" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -957,10 +1094,10 @@
     </row>
     <row r="13" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
+        <v>7</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -969,10 +1106,10 @@
     </row>
     <row r="14" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -981,34 +1118,32 @@
     </row>
     <row r="15" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="2:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1017,10 +1152,10 @@
     </row>
     <row r="18" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1029,77 +1164,79 @@
     </row>
     <row r="19" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
-        <v>17</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+    <row r="20" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="21"/>
+      <c r="C21" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
     </row>
     <row r="22" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="12">
-        <v>18</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
-        <v>19</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="B22" s="11">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>14</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>20</v>
-      </c>
-      <c r="C25" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="3"/>
@@ -1107,9 +1244,11 @@
     </row>
     <row r="26" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>21</v>
-      </c>
-      <c r="C26" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="3"/>
@@ -1117,29 +1256,33 @@
     </row>
     <row r="27" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>22</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
-        <v>23</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="2:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>24</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="C29" s="44" t="s">
+        <v>34</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="3"/>
@@ -1147,181 +1290,293 @@
     </row>
     <row r="30" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>25</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
+        <v>21</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <v>23</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <v>24</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <v>25</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
         <v>26</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-    </row>
-    <row r="34" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-    </row>
-    <row r="35" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-    </row>
-    <row r="36" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-    <row r="38" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-    </row>
-    <row r="39" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-    </row>
-    <row r="42" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-    </row>
-    <row r="45" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-    </row>
-    <row r="46" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C36" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="2:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="12">
+        <v>19</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <v>20</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <v>21</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <v>22</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <v>23</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <v>24</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <v>25</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <v>26</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
     </row>
     <row r="65" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4132,15 +4387,61 @@
     <row r="1000" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C1000" s="1"/>
     </row>
+    <row r="1001" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1001" s="1"/>
+    </row>
+    <row r="1002" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1002" s="1"/>
+    </row>
+    <row r="1003" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1003" s="1"/>
+    </row>
+    <row r="1004" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1004" s="1"/>
+    </row>
+    <row r="1005" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1005" s="1"/>
+    </row>
+    <row r="1006" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1006" s="1"/>
+    </row>
+    <row r="1007" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1007" s="1"/>
+    </row>
+    <row r="1008" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1008" s="1"/>
+    </row>
+    <row r="1009" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1009" s="1"/>
+    </row>
+    <row r="1010" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1010" s="1"/>
+    </row>
+    <row r="1011" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1011" s="1"/>
+    </row>
+    <row r="1012" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1012" s="1"/>
+    </row>
+    <row r="1013" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1013" s="1"/>
+    </row>
+    <row r="1014" spans="3:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C1014" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4149,15 +4450,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E2AC4C-28DB-4F9F-8B60-D929CB093371}">
-  <dimension ref="A3:F21"/>
+  <dimension ref="A3:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="58" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="4" max="4" width="42.109375" customWidth="1"/>
@@ -4165,192 +4466,256 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="A3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="40" t="s">
+      <c r="A4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="43"/>
-    </row>
-    <row r="5" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="E4" s="43"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
+        <v>2</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
+        <v>4</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="57">
+        <v>5</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>2</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>4</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>5</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="57">
         <v>6</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="57">
         <v>7</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>29</v>
+      <c r="B12" s="54" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="57">
         <v>8</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>14</v>
+      <c r="B13" s="54" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="57">
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="57">
         <v>10</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>30</v>
+      <c r="B15" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="57">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>21</v>
+      <c r="B16" s="54" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="57">
         <v>12</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="B17" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="57">
+        <v>13</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
-        <v>13</v>
-      </c>
-      <c r="B19" s="11"/>
+      <c r="A19" s="57">
+        <v>14</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>50</v>
+      </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11"/>
+      <c r="A20" s="57">
+        <v>15</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>51</v>
+      </c>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
-        <v>15</v>
-      </c>
-      <c r="B21" s="11"/>
+      <c r="A21" s="57">
+        <v>16</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="57">
+        <v>17</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56">
+        <v>18</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="57">
+        <v>19</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="57">
+        <v>20</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="57">
+        <v>21</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
